--- a/data/trans_orig/P1417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2663</v>
+        <v>2542</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13866</v>
+        <v>14318</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006080309071800367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002580675109550767</v>
+        <v>0.002464241795908245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01343944339685589</v>
+        <v>0.0138774806404773</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>31524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21346</v>
+        <v>21439</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44507</v>
+        <v>44630</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02397045454156626</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01623100594541601</v>
+        <v>0.01630217879268542</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03384270556340161</v>
+        <v>0.0339361870923898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>37797</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27340</v>
+        <v>26989</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51838</v>
+        <v>52466</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01610553520153522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01164987849372367</v>
+        <v>0.01150013087027617</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0220884795296066</v>
+        <v>0.02235622928750757</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1025450</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1017857</v>
+        <v>1017405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1029060</v>
+        <v>1029181</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9939196909281997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9865605566031437</v>
+        <v>0.9861225193595223</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9974193248904493</v>
+        <v>0.9975357582040918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1261</v>
@@ -836,19 +836,19 @@
         <v>1283589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1270606</v>
+        <v>1270483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1293767</v>
+        <v>1293674</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9760295454584338</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9661572944365984</v>
+        <v>0.9660638129076101</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9837689940545837</v>
+        <v>0.9836978212073144</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2293</v>
@@ -857,19 +857,19 @@
         <v>2309038</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2294997</v>
+        <v>2294369</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2319495</v>
+        <v>2319846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9838944647984648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9779115204703934</v>
+        <v>0.9776437707124926</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9883501215062763</v>
+        <v>0.9884998691297239</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4454</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1718</v>
+        <v>1692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10468</v>
+        <v>9942</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002630221293800042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001014532064311122</v>
+        <v>0.0009990787668875763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006181515869395683</v>
+        <v>0.005870961735079626</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -982,19 +982,19 @@
         <v>20263</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12801</v>
+        <v>12912</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30892</v>
+        <v>30895</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0127628340256641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008062452361250442</v>
+        <v>0.008132637443387953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0194576685860689</v>
+        <v>0.01945916801155442</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -1003,19 +1003,19 @@
         <v>24717</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15799</v>
+        <v>16914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36903</v>
+        <v>36070</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007533255867885873</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004815182169878604</v>
+        <v>0.005154868084712454</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01124719581920789</v>
+        <v>0.01099334642491161</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1688959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1682945</v>
+        <v>1683471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1691695</v>
+        <v>1691721</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9973697787061999</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9938184841306046</v>
+        <v>0.9941290382649205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9989854679356889</v>
+        <v>0.9990009212331125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1534</v>
@@ -1053,19 +1053,19 @@
         <v>1567410</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1556781</v>
+        <v>1556778</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1574872</v>
+        <v>1574761</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9872371659743359</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9805423314139312</v>
+        <v>0.9805408319884454</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9919375476387496</v>
+        <v>0.991867362556612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3178</v>
@@ -1074,19 +1074,19 @@
         <v>3256369</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3244183</v>
+        <v>3245016</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3265287</v>
+        <v>3264172</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9924667441321141</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9887528041807916</v>
+        <v>0.9890066535750883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9951848178301214</v>
+        <v>0.9948451319152875</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10974</v>
+        <v>11282</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004994050720393044</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01990236884662729</v>
+        <v>0.0204604823822888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>5886</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2076</v>
+        <v>2127</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12481</v>
+        <v>13477</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01235460027263219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004357300048161199</v>
+        <v>0.004464692540735146</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02619689206702764</v>
+        <v>0.02828884345220037</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1220,19 +1220,19 @@
         <v>8640</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4269</v>
+        <v>3785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18446</v>
+        <v>18321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00840578907732484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004153004090157688</v>
+        <v>0.003682329258558522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01794627216000165</v>
+        <v>0.01782519469244778</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>548654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540434</v>
+        <v>540126</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>551408</v>
@@ -1258,7 +1258,7 @@
         <v>0.9950059492796069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9800976311533731</v>
+        <v>0.9795395176177113</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>470526</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>463931</v>
+        <v>462935</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>474336</v>
+        <v>474285</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9876453997273679</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9738031079329726</v>
+        <v>0.9717111565477999</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9956426999518388</v>
+        <v>0.9955353074592649</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>972</v>
@@ -1291,19 +1291,19 @@
         <v>1019180</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1009374</v>
+        <v>1009499</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1023551</v>
+        <v>1024035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9915942109226752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9820537278399983</v>
+        <v>0.9821748053075521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958469959098422</v>
+        <v>0.9963176707414414</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>13481</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004114397798215904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1416,19 +1416,19 @@
         <v>57673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01706705025658779</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -1437,19 +1437,19 @@
         <v>71154</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01069061083892849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3263062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3253424</v>
+        <v>3253515</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3269111</v>
+        <v>3268878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9958856022017841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9929442155226622</v>
+        <v>0.9929718324984416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9977316482784709</v>
+        <v>0.9976605905283137</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3242</v>
@@ -1487,19 +1487,19 @@
         <v>3321524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3304691</v>
+        <v>3304562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3335135</v>
+        <v>3334357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9829329497434122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9779515160883894</v>
+        <v>0.9779134504268989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9869608008448926</v>
+        <v>0.9867307070805407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6443</v>
@@ -1508,19 +1508,19 @@
         <v>6584587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6565898</v>
+        <v>6566836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6601184</v>
+        <v>6601460</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9893093891610715</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9865013599347514</v>
+        <v>0.9866422851757177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9918030682131054</v>
+        <v>0.9918444964801655</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>6268</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2177</v>
+        <v>2146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13903</v>
+        <v>12630</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006430925959656427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002233985940605341</v>
+        <v>0.002201553074139044</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01426429195512847</v>
+        <v>0.01295857766481285</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -1872,19 +1872,19 @@
         <v>49211</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37501</v>
+        <v>36768</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65386</v>
+        <v>64481</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03678484324628217</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02803212933619643</v>
+        <v>0.02748393691544732</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04887614224804203</v>
+        <v>0.04819908429273272</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -1893,19 +1893,19 @@
         <v>55479</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40612</v>
+        <v>42744</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71852</v>
+        <v>73821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02399132687662454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01756229230551836</v>
+        <v>0.01848450476944281</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03107208894968404</v>
+        <v>0.03192332646447622</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>968375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>960740</v>
+        <v>962013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>972466</v>
+        <v>972497</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9935690740403436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9857357080448715</v>
+        <v>0.9870414223351871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977660140593947</v>
+        <v>0.9977984469258609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1201</v>
@@ -1943,19 +1943,19 @@
         <v>1288586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1272411</v>
+        <v>1273316</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1300296</v>
+        <v>1301029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9632151567537178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.951123857751958</v>
+        <v>0.9518009157072672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9719678706638035</v>
+        <v>0.9725160630845526</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2103</v>
@@ -1964,19 +1964,19 @@
         <v>2256961</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2240588</v>
+        <v>2238619</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2271828</v>
+        <v>2269696</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9760086731233755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9689279110503161</v>
+        <v>0.968076673535524</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9824377076944817</v>
+        <v>0.9815154952305573</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>8034</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3959</v>
+        <v>3926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15361</v>
+        <v>14941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004090743802923372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00201589021574277</v>
+        <v>0.00199923694981616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007821449580851004</v>
+        <v>0.007607358789433202</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -2089,19 +2089,19 @@
         <v>37115</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26882</v>
+        <v>26789</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51318</v>
+        <v>51455</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0211658953228804</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01532998602960563</v>
+        <v>0.01527714851991247</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02926531165264563</v>
+        <v>0.02934352122569912</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -2110,19 +2110,19 @@
         <v>45149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33479</v>
+        <v>32743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62293</v>
+        <v>60876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01214508996714044</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009005867474938986</v>
+        <v>0.008807747754173615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01675672480725223</v>
+        <v>0.01637549768054647</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1955923</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1948596</v>
+        <v>1949016</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1959998</v>
+        <v>1960031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9959092561970766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9921785504191499</v>
+        <v>0.9923926412105668</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979841097842572</v>
+        <v>0.9980007630501838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1598</v>
@@ -2160,19 +2160,19 @@
         <v>1716430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1702227</v>
+        <v>1702090</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1726663</v>
+        <v>1726756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9788341046771196</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9707346883473541</v>
+        <v>0.9706564787743004</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9846700139703942</v>
+        <v>0.9847228514800875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3446</v>
@@ -2181,19 +2181,19 @@
         <v>3672354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3655210</v>
+        <v>3656627</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3684024</v>
+        <v>3684760</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9878549100328595</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9832432751927475</v>
+        <v>0.9836245023194533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.990994132525061</v>
+        <v>0.9911922522458264</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5155</v>
+        <v>6639</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00212503937024166</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01071314803677207</v>
+        <v>0.01379631580370253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2306,19 +2306,19 @@
         <v>10233</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5073</v>
+        <v>5033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18784</v>
+        <v>18657</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02231288336951088</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01106118410179514</v>
+        <v>0.01097330994858839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04095560032509563</v>
+        <v>0.04068082268643636</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2327,19 +2327,19 @@
         <v>11256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5928</v>
+        <v>5971</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20018</v>
+        <v>20300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01197676256087078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00630745445257795</v>
+        <v>0.00635304411579011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0212997985154086</v>
+        <v>0.02160031946193031</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>480158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>476026</v>
+        <v>474542</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>481181</v>
@@ -2365,7 +2365,7 @@
         <v>0.9978749606297583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.989286851963228</v>
+        <v>0.9862036841962984</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>448398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>439847</v>
+        <v>439974</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>453558</v>
+        <v>453598</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9776871166304891</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9590443996749044</v>
+        <v>0.9593191773135636</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9889388158982049</v>
+        <v>0.9890266900514116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>839</v>
@@ -2398,19 +2398,19 @@
         <v>928557</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>919795</v>
+        <v>919513</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>933885</v>
+        <v>933842</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9880232374391292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9787002014845914</v>
+        <v>0.9783996805380697</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.993692545547422</v>
+        <v>0.9936469558842099</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>15324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9928</v>
+        <v>9007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26595</v>
+        <v>23683</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004481114229328259</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002903221399644314</v>
+        <v>0.002633891659155512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00777682956310428</v>
+        <v>0.006925185689301875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -2523,19 +2523,19 @@
         <v>96559</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78625</v>
+        <v>79092</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>118833</v>
+        <v>116225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0272000308113306</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02214810083525558</v>
+        <v>0.02227954179832045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03347447304126776</v>
+        <v>0.03273977755138589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -2544,19 +2544,19 @@
         <v>111884</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92164</v>
+        <v>91741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133791</v>
+        <v>137097</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01605276112943795</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0132234622273354</v>
+        <v>0.01316267613426809</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01919594993678273</v>
+        <v>0.01967033721439591</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3404458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3393187</v>
+        <v>3396099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3409854</v>
+        <v>3410775</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9955188857706717</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9922231704368957</v>
+        <v>0.9930748143106981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970967786003557</v>
+        <v>0.9973661083408445</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3201</v>
@@ -2594,19 +2594,19 @@
         <v>3453414</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3431140</v>
+        <v>3433748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3471348</v>
+        <v>3470881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9727999691886694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9665255269587323</v>
+        <v>0.9672602224486142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9778518991647445</v>
+        <v>0.9777204582016795</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6388</v>
@@ -2615,19 +2615,19 @@
         <v>6857871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6835964</v>
+        <v>6832658</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6877591</v>
+        <v>6878014</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.983947238870562</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9808040500632171</v>
+        <v>0.9803296627856041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9867765377726645</v>
+        <v>0.9868373238657319</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>10363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4737</v>
+        <v>5576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17835</v>
+        <v>18042</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01373760036771636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006280081489912885</v>
+        <v>0.007391679344263952</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02364351236408292</v>
+        <v>0.02391695776358671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2979,19 +2979,19 @@
         <v>35748</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25466</v>
+        <v>24835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51049</v>
+        <v>48385</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03593970945333045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02560316332977688</v>
+        <v>0.02496826415315704</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05132268963076159</v>
+        <v>0.04864524673841975</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -3000,19 +3000,19 @@
         <v>46111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34020</v>
+        <v>34312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61916</v>
+        <v>61922</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02636393878886951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0194508822297156</v>
+        <v>0.01961778877688545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03540083600314012</v>
+        <v>0.03540404987276299</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>743984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>736512</v>
+        <v>736305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>749610</v>
+        <v>748771</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9862623996322837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9763564876359169</v>
+        <v>0.9760830422364132</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.993719918510087</v>
+        <v>0.992608320655736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>860</v>
@@ -3050,19 +3050,19 @@
         <v>958912</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>943611</v>
+        <v>946275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>969194</v>
+        <v>969825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9640602905466695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9486773103692386</v>
+        <v>0.9513547532615803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.974396836670223</v>
+        <v>0.975031735846843</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1611</v>
@@ -3071,19 +3071,19 @@
         <v>1702896</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1687091</v>
+        <v>1687085</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1714987</v>
+        <v>1714695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9736360612111304</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9645991639968603</v>
+        <v>0.964595950127237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9805491177702844</v>
+        <v>0.9803822112231145</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>7717</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3071</v>
+        <v>3145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16160</v>
+        <v>14747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003716320063168666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001479237635167034</v>
+        <v>0.001514728543574469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007782809984313759</v>
+        <v>0.007102484808296019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -3196,19 +3196,19 @@
         <v>40428</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29150</v>
+        <v>28798</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54989</v>
+        <v>54281</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02033314620540583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01466089075281773</v>
+        <v>0.01448353739204822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02765648748512045</v>
+        <v>0.02730001693289696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -3217,19 +3217,19 @@
         <v>48145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36099</v>
+        <v>36196</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63800</v>
+        <v>65115</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01184468333096884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008881210215932345</v>
+        <v>0.008905110725009924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01569615077806823</v>
+        <v>0.01601957845751773</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2068668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2060225</v>
+        <v>2061638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2073314</v>
+        <v>2073240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9962836799368313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9922171900156862</v>
+        <v>0.9928975151917037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.998520762364833</v>
+        <v>0.9984852714564251</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1869</v>
@@ -3267,19 +3267,19 @@
         <v>1947872</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1933311</v>
+        <v>1934019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1959150</v>
+        <v>1959502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9796668537945942</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.97234351251488</v>
+        <v>0.9726999830671031</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9853391092471827</v>
+        <v>0.9855164626079518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3814</v>
@@ -3288,19 +3288,19 @@
         <v>4016540</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4000885</v>
+        <v>3999570</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4028586</v>
+        <v>4028489</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9881553166690311</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9843038492219318</v>
+        <v>0.9839804215424823</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9911187897840678</v>
+        <v>0.9910948892749901</v>
       </c>
     </row>
     <row r="9">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5102</v>
+        <v>4983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001858675358886491</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009329159527055325</v>
+        <v>0.009111103814653486</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3413,19 +3413,19 @@
         <v>10698</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5699</v>
+        <v>5723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20077</v>
+        <v>19545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01948125060298977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01037743606978395</v>
+        <v>0.01042149254287121</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03656109172596119</v>
+        <v>0.03559198151657243</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3434,19 +3434,19 @@
         <v>11714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5943</v>
+        <v>5762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20481</v>
+        <v>21011</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01068808471693346</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00542230564748361</v>
+        <v>0.005256896029870103</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0186861667649698</v>
+        <v>0.01916976649816051</v>
       </c>
     </row>
     <row r="11">
@@ -3463,7 +3463,7 @@
         <v>545870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>541784</v>
+        <v>541903</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -3472,7 +3472,7 @@
         <v>0.9981413246411135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9906708404729446</v>
+        <v>0.9908888961853477</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3484,19 +3484,19 @@
         <v>538442</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>529063</v>
+        <v>529595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>543441</v>
+        <v>543417</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9805187493970102</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9634389082740384</v>
+        <v>0.9644080184834275</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9896225639302159</v>
+        <v>0.9895785074571287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1016</v>
@@ -3505,19 +3505,19 @@
         <v>1084313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1075546</v>
+        <v>1075016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1090084</v>
+        <v>1090265</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9893119152830665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9813138332350302</v>
+        <v>0.9808302335018394</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9945776943525164</v>
+        <v>0.9947431039701299</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>19096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11758</v>
+        <v>11504</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31506</v>
+        <v>29271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005653661835836502</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003481185571373168</v>
+        <v>0.00340602262356659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009327761137844406</v>
+        <v>0.008666206009907869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -3630,19 +3630,19 @@
         <v>86874</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70374</v>
+        <v>68692</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108961</v>
+        <v>106429</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02459560039259256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01992422040619081</v>
+        <v>0.0194478079108514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03084869006567667</v>
+        <v>0.03013205718988275</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -3651,19 +3651,19 @@
         <v>105970</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87964</v>
+        <v>86164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127804</v>
+        <v>127319</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01533637640880302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01273053284681209</v>
+        <v>0.01247004094672605</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01849623302844508</v>
+        <v>0.01842614454363629</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3358522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3346112</v>
+        <v>3348347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3365860</v>
+        <v>3366114</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9943463381641635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9906722388621556</v>
+        <v>0.9913337939900922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965188144286269</v>
+        <v>0.9965939773764335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3245</v>
@@ -3701,19 +3701,19 @@
         <v>3445226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3423139</v>
+        <v>3425671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3461726</v>
+        <v>3463408</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9754043996074074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9691513099343233</v>
+        <v>0.9698679428101172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9800757795938092</v>
+        <v>0.9805521920891486</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6441</v>
@@ -3722,19 +3722,19 @@
         <v>6803748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6781914</v>
+        <v>6782399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6821754</v>
+        <v>6823554</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.984663623591197</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9815037669715552</v>
+        <v>0.9815738554563638</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.987269467153188</v>
+        <v>0.9875299590532739</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>21236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14273</v>
+        <v>14641</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30946</v>
+        <v>29885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03685664834407681</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02477130153918213</v>
+        <v>0.02541112935755927</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05370994745935141</v>
+        <v>0.05186778499663124</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -4086,19 +4086,19 @@
         <v>55657</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44297</v>
+        <v>45103</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66950</v>
+        <v>68363</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06793177689285669</v>
+        <v>0.0679317768928567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05406693300529047</v>
+        <v>0.05505096702480995</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0817153095843927</v>
+        <v>0.0834401918549721</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -4107,19 +4107,19 @@
         <v>76893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64884</v>
+        <v>64206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92946</v>
+        <v>91312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05510125504419053</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04649564757837093</v>
+        <v>0.0460100752918059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06660552698391227</v>
+        <v>0.06543433178638437</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>554939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>545229</v>
+        <v>546290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>561902</v>
+        <v>561534</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9631433516559232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9462900525406479</v>
+        <v>0.9481322150033691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9752286984608178</v>
+        <v>0.9745888706424412</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1323</v>
@@ -4157,19 +4157,19 @@
         <v>763646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>752353</v>
+        <v>750940</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>775006</v>
+        <v>774200</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9320682231071432</v>
+        <v>0.9320682231071435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9182846904156069</v>
+        <v>0.9165598081450275</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9459330669947092</v>
+        <v>0.94494903297519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1980</v>
@@ -4178,19 +4178,19 @@
         <v>1318584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1302531</v>
+        <v>1304165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1330593</v>
+        <v>1331271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9448987449558095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9333944730160877</v>
+        <v>0.9345656682136156</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9535043524216291</v>
+        <v>0.9539899247081941</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>19611</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12352</v>
+        <v>12479</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30159</v>
+        <v>29440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008804455642167889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00554566801768514</v>
+        <v>0.005602562091238415</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0135401320340376</v>
+        <v>0.01321726500935028</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -4303,19 +4303,19 @@
         <v>84366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68021</v>
+        <v>69987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101033</v>
+        <v>103629</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0389168985033747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03137726779318287</v>
+        <v>0.03228413855889584</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04660516782645469</v>
+        <v>0.04780252648607229</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -4324,19 +4324,19 @@
         <v>103977</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86945</v>
+        <v>85491</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>124897</v>
+        <v>124309</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02365686402223775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01978181183014241</v>
+        <v>0.01945081492535794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02841662268540017</v>
+        <v>0.02828270543593827</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2207745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2197197</v>
+        <v>2197916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2215004</v>
+        <v>2214877</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9911955443578322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9864598679659621</v>
+        <v>0.9867827349906496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944543319823147</v>
+        <v>0.9943974379087615</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2800</v>
@@ -4374,19 +4374,19 @@
         <v>2083493</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2066826</v>
+        <v>2064230</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2099838</v>
+        <v>2097872</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9610831014966251</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9533948321735451</v>
+        <v>0.952197473513928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.968622732206817</v>
+        <v>0.9677158614411042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4766</v>
@@ -4395,19 +4395,19 @@
         <v>4291238</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4270318</v>
+        <v>4270906</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4308270</v>
+        <v>4309724</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9763431359777622</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9715833773145994</v>
+        <v>0.9717172945640618</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9802181881698572</v>
+        <v>0.9805491850746416</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>2048</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6416</v>
+        <v>6042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002878303549522546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0008284955356178149</v>
+        <v>0.0008100891262153606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009017053590823226</v>
+        <v>0.008490509532016246</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -4520,19 +4520,19 @@
         <v>28461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20216</v>
+        <v>20258</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39446</v>
+        <v>38106</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03872827509285546</v>
+        <v>0.03872827509285545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02750895732986744</v>
+        <v>0.02756644912775172</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05367731524570678</v>
+        <v>0.05185316306655653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -4541,19 +4541,19 @@
         <v>30509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21552</v>
+        <v>22298</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41417</v>
+        <v>41699</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02109190853761006</v>
+        <v>0.02109190853761005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01489966301537206</v>
+        <v>0.01541579379714241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02863346671165303</v>
+        <v>0.02882836336816741</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>709539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>705171</v>
+        <v>705545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>710997</v>
+        <v>711011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9971216964504774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9909829464091768</v>
+        <v>0.9915094904679838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9991715044643822</v>
+        <v>0.9991899108737847</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>965</v>
@@ -4591,19 +4591,19 @@
         <v>706416</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>695431</v>
+        <v>696771</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>714661</v>
+        <v>714619</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9612717249071443</v>
+        <v>0.9612717249071444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9463226847542933</v>
+        <v>0.9481468369334434</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9724910426701324</v>
+        <v>0.9724335508722483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1643</v>
@@ -4612,19 +4612,19 @@
         <v>1415955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1405047</v>
+        <v>1404765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1424912</v>
+        <v>1424166</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.97890809146239</v>
+        <v>0.9789080914623898</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9713665332883471</v>
+        <v>0.9711716366318327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.985100336984628</v>
+        <v>0.9845842062028575</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>42895</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32366</v>
+        <v>32266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55320</v>
+        <v>56265</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01220291638246986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009207764464807859</v>
+        <v>0.009179129462625245</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01573775968521197</v>
+        <v>0.01600655272173074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>254</v>
@@ -4737,19 +4737,19 @@
         <v>168484</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147786</v>
+        <v>148193</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>193092</v>
+        <v>191357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04526646971626626</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03970568457650378</v>
+        <v>0.03981503906857121</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05187789211499919</v>
+        <v>0.0514120034115452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>312</v>
@@ -4758,19 +4758,19 @@
         <v>211378</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189200</v>
+        <v>187896</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238610</v>
+        <v>237136</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02920736109782944</v>
+        <v>0.02920736109782945</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02614283027443213</v>
+        <v>0.02596273824138817</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03297019648658414</v>
+        <v>0.03276649933579613</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3472223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3459798</v>
+        <v>3458853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3482752</v>
+        <v>3482852</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9877970836175303</v>
+        <v>0.9877970836175302</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.984262240314788</v>
+        <v>0.9839934472782688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907922355351921</v>
+        <v>0.9908208705373749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5088</v>
@@ -4808,19 +4808,19 @@
         <v>3553555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3528947</v>
+        <v>3530682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3574253</v>
+        <v>3573846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9547335302837339</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.948122107885001</v>
+        <v>0.9485879965884547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9602943154234963</v>
+        <v>0.9601849609314287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8389</v>
@@ -4829,19 +4829,19 @@
         <v>7025779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6998547</v>
+        <v>7000021</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7047957</v>
+        <v>7049261</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9707926389021705</v>
+        <v>0.9707926389021706</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9670298035134157</v>
+        <v>0.9672335006642038</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9738571697255677</v>
+        <v>0.9740372617586122</v>
       </c>
     </row>
     <row r="15">
